--- a/data/trade_metadata.xlsx
+++ b/data/trade_metadata.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Static</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Option</t>
+          <t>Swap</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rolled</t>
+          <t>Amended</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Amended</t>
+          <t>Static</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Matured</t>
+          <t>Amended</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>T006</t>
+          <t>T016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -725,7 +725,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>T007</t>
+          <t>T017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -742,7 +742,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>T008</t>
+          <t>T018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -759,7 +759,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>T009</t>
+          <t>T019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>T010</t>
+          <t>T020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -793,7 +793,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>T011</t>
+          <t>T021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>T012</t>
+          <t>T022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -827,7 +827,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>T013</t>
+          <t>T023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>T014</t>
+          <t>T024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>T015</t>
+          <t>T025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
